--- a/biology/Botanique/Quercus_dalechampii/Quercus_dalechampii.xlsx
+++ b/biology/Botanique/Quercus_dalechampii/Quercus_dalechampii.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Quercus dalechampii, appelé communément chêne de Daléchamp[1], est une espèce européenne de chêne de la famille des fagacées.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Quercus dalechampii, appelé communément chêne de Daléchamp, est une espèce européenne de chêne de la famille des fagacées.
 </t>
         </is>
       </c>
@@ -511,12 +523,14 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'écorce est très épaisse, profondément fissurée, brune ou noirâtre. Les rameaux jeunes sont pubescents, ceux matures sont plus ou moins glabres[1].
-Ses feuilles mesurent de 6 à 15 cm pour une largeur de 4 à 10 cm. Elles ressemblent à Quercus petraea mais elles sont plus fines, obovales, plus lobées (3 à 6 paires de lobes étroits, irréguliers, subaigus, les lobes médians souvent lobulés), la base arrondie ou cordiforme (parfois légèrement décurrente sur le pétiole), glabres dessus et à peine pubescentes dessous (moins que chez Quercus pubescens), sur un pétiole glabrescent de 1 à 2,5 cm[1].
-Les fleurs mâle ont 8 à 10 étamines plus courtes que le périanthe, le rachis du chaton femelle mesure de 0,5 à 6 cm, portant de 1 à 5 fleurs[1].
-Le gland mesure de 1,2 à 2,3 cm de long. La cupule est hémisphérique, à écailles losangiques, tuberculées et un peu poilues, grisâtres[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'écorce est très épaisse, profondément fissurée, brune ou noirâtre. Les rameaux jeunes sont pubescents, ceux matures sont plus ou moins glabres.
+Ses feuilles mesurent de 6 à 15 cm pour une largeur de 4 à 10 cm. Elles ressemblent à Quercus petraea mais elles sont plus fines, obovales, plus lobées (3 à 6 paires de lobes étroits, irréguliers, subaigus, les lobes médians souvent lobulés), la base arrondie ou cordiforme (parfois légèrement décurrente sur le pétiole), glabres dessus et à peine pubescentes dessous (moins que chez Quercus pubescens), sur un pétiole glabrescent de 1 à 2,5 cm.
+Les fleurs mâle ont 8 à 10 étamines plus courtes que le périanthe, le rachis du chaton femelle mesure de 0,5 à 6 cm, portant de 1 à 5 fleurs.
+Le gland mesure de 1,2 à 2,3 cm de long. La cupule est hémisphérique, à écailles losangiques, tuberculées et un peu poilues, grisâtres.
 </t>
         </is>
       </c>
@@ -545,10 +559,12 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">On trouve Quercus dalechampii au centre-est et au sud-est de l'Europe jusqu'en Autriche et en Sicile[1] : Bulgarie, Grèce, Balkans, Italie, Autriche, Hongrie, Slovaquie et République tchèque[2].
-Il est présent à une altitude entre 800 et 1 300 m sur un sol pierreux, aride[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">On trouve Quercus dalechampii au centre-est et au sud-est de l'Europe jusqu'en Autriche et en Sicile : Bulgarie, Grèce, Balkans, Italie, Autriche, Hongrie, Slovaquie et République tchèque.
+Il est présent à une altitude entre 800 et 1 300 m sur un sol pierreux, aride.
 </t>
         </is>
       </c>
@@ -577,9 +593,11 @@
           <t>Écologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Quercus dalechampii est une plante hôte des chenilles de Phyllonorycter harrisella[3].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Quercus dalechampii est une plante hôte des chenilles de Phyllonorycter harrisella.
 </t>
         </is>
       </c>
